--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_100.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1214285714285714</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.675</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#', 'E', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.733242, 8.959274)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(75.671359, 79.964285)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07542426147077311</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[('0:01:28.480000', '0:01:40.380000'), ('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:28.800000', '0:00:36.860000'), ('0:01:24', '0:01:30.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3860294117647059</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['D', 'G/5', 'D', 'G/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:03.700000', '0:00:07.500000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(67.0, 70.38), (16.02, 22.5)]</t>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(53.46, 63.98)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.42, 33.96)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
